--- a/src/models/baselines/XGBoost/results/real-world/Dribbble/metrics.xlsx
+++ b/src/models/baselines/XGBoost/results/real-world/Dribbble/metrics.xlsx
@@ -456,13 +456,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7012987012987013</v>
+        <v>0.6883116883116883</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7012987012987013</v>
+        <v>0.6883116883116883</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8295527124596848</v>
+        <v>0.8223020247919064</v>
       </c>
     </row>
     <row r="3">
@@ -476,7 +476,7 @@
         <v>0.6688311688311688</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8466735709339314</v>
+        <v>0.8431501184968148</v>
       </c>
     </row>
     <row r="4">
@@ -484,13 +484,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6558441558441559</v>
+        <v>0.6883116883116883</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6558441558441559</v>
+        <v>0.6883116883116883</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8443941281310611</v>
+        <v>0.8596510758517563</v>
       </c>
     </row>
     <row r="5">
@@ -498,13 +498,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6233766233766234</v>
+        <v>0.6298701298701299</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6233766233766234</v>
+        <v>0.6298701298701299</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8232309280825035</v>
+        <v>0.8297102139012352</v>
       </c>
     </row>
     <row r="6">
@@ -512,13 +512,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6428571428571429</v>
+        <v>0.6493506493506493</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6428571428571429</v>
+        <v>0.6493506493506493</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7975562273593834</v>
+        <v>0.8112979953484137</v>
       </c>
     </row>
     <row r="7">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6103896103896104</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6103896103896104</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7947056478423646</v>
+        <v>0.7961328171341705</v>
       </c>
     </row>
     <row r="8">
@@ -540,13 +540,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6168831168831169</v>
+        <v>0.6233766233766234</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6168831168831169</v>
+        <v>0.6233766233766234</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7958816149225978</v>
+        <v>0.799779146215965</v>
       </c>
     </row>
     <row r="9">
@@ -554,13 +554,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6298701298701299</v>
+        <v>0.6103896103896104</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6298701298701299</v>
+        <v>0.6103896103896104</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8028587184134945</v>
+        <v>0.8037164408467762</v>
       </c>
     </row>
     <row r="10">
@@ -568,13 +568,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5974025974025974</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5974025974025974</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7814378671125127</v>
+        <v>0.7890545292269152</v>
       </c>
     </row>
     <row r="11">
@@ -582,13 +582,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6558441558441559</v>
+        <v>0.6688311688311688</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6558441558441559</v>
+        <v>0.6688311688311688</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8388848884143498</v>
+        <v>0.8346348325456537</v>
       </c>
     </row>
   </sheetData>
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6402597402597403</v>
+        <v>0.6461038961038961</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6402597402597403</v>
+        <v>0.6461038961038961</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8155176303671883</v>
+        <v>0.8189429194359606</v>
       </c>
     </row>
     <row r="3">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0310965973957887</v>
+        <v>0.0328619620144783</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0310965973957887</v>
+        <v>0.0328619620144783</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02373477062090989</v>
+        <v>0.02282239201589842</v>
       </c>
     </row>
   </sheetData>
